--- a/biology/Zoologie/Cicadatra/Cicadatra.xlsx
+++ b/biology/Zoologie/Cicadatra/Cicadatra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicadrata, Rustavelia
 Cicadatra est un genre d'insectes hémiptères de la famille des Cicadidae (cigales) et de la sous-famille des Cicadinae.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cicadatra est décrit en 1857 par le zoologiste tchèque et allemand Kolenati (d) (1812-1864)[1],[2].
-Genre type
-Cicadatra est le genre-type de la tribu des Cicadatrini Distant, 1905.
-Espèce type
-L'espèce type est Cicadatra atra (Olivier, 1790)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cicadatra est décrit en 1857 par le zoologiste tchèque et allemand Kolenati (d) (1812-1864),.
 </t>
         </is>
       </c>
@@ -544,12 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genre type</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cicadatra est le genre-type de la tribu des Cicadatrini Distant, 1905.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cicadatra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est Cicadatra atra (Olivier, 1790)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cicadatra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF en 2022 et BioLib, les espèces référencées sont au nombre quarante-sept[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF en 2022 et BioLib, les espèces référencées sont au nombre quarante-sept :
 Cicadatra abdominalis Schumacher, 1923
 Cicadatra acberi (Distant, 1888)
 Cicadatra adanai Kartal, 1980
@@ -557,7 +643,7 @@
 Cicadatra anoea (Walker, 1850)
 Cicadatra appendiculata Linnavuori, 1954
 Cicadatra ashrafi Ahmed, Sanborn &amp; Akhter, 2013
-Cicadatra atra (Olivier, 1790) - type species[4]
+Cicadatra atra (Olivier, 1790) - type species
 Cicadatra barbodi Mozaffarian &amp; Sanborn, 2013
 Cicadatra bistunensis Mozaffarian &amp; Sanborn, 2010
 Cicadatra erkowitensis Linnavuori, 1973
@@ -571,7 +657,7 @@
 Cicadatra hyalinata (Brullé, 1832)
 Cicadatra icari Simões, Sanborn &amp; Quartau, 2013
 Cicadatra inconspicua Distant, 1912
-Cicadatra karachiensis Ahmed, Sanborn &amp; Hill, 2010[4]
+Cicadatra karachiensis Ahmed, Sanborn &amp; Hill, 2010
 Cicadatra karpathosensis Simões, Sanborn &amp; Quartau, 2013
 Cicadatra kermanica Dlabola, 1970
 Cicadatra longipennis Schumacher, 1923
@@ -582,7 +668,7 @@
 Cicadatra pazukii Mozaffarian &amp; Sanborn, 2015
 Cicadatra persica Kirkaldy, 1909
 Cicadatra platyptera Fieber, 1876
-Cicadatra querula (Pallas, 1773)[5]
+Cicadatra querula (Pallas, 1773)
 Cicadatra raja Distant, 1906
 Cicadatra ramanensis Linnavuori, 1962
 Cicadatra reinhardi Kartal, 1980
@@ -601,34 +687,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Cicadatra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cicadatra</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèce fossile</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée[1] :
-†Cicadatra serresi (Meunier 1915)[6].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, une seule espèce fossile est référencée :
+†Cicadatra serresi (Meunier 1915).</t>
         </is>
       </c>
     </row>
